--- a/水泥.excel/1108/1108(102.1~105.12)EPM.xlsx
+++ b/水泥.excel/1108/1108(102.1~105.12)EPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>營業收入淨額_x</t>
   </si>
@@ -163,283 +163,7 @@
     <t>本月</t>
   </si>
   <si>
-    <t>481,802</t>
-  </si>
-  <si>
-    <t>276,936</t>
-  </si>
-  <si>
-    <t>444,917</t>
-  </si>
-  <si>
-    <t>362,054</t>
-  </si>
-  <si>
-    <t>381,384</t>
-  </si>
-  <si>
-    <t>368,109</t>
-  </si>
-  <si>
-    <t>439,572</t>
-  </si>
-  <si>
-    <t>379,115</t>
-  </si>
-  <si>
-    <t>387,362</t>
-  </si>
-  <si>
-    <t>450,770</t>
-  </si>
-  <si>
-    <t>456,920</t>
-  </si>
-  <si>
-    <t>440,515</t>
-  </si>
-  <si>
-    <t>506,782</t>
-  </si>
-  <si>
-    <t>243,173</t>
-  </si>
-  <si>
-    <t>466,684</t>
-  </si>
-  <si>
-    <t>457,432</t>
-  </si>
-  <si>
-    <t>408,903</t>
-  </si>
-  <si>
-    <t>412,580</t>
-  </si>
-  <si>
-    <t>413,460</t>
-  </si>
-  <si>
-    <t>415,985</t>
-  </si>
-  <si>
-    <t>407,238</t>
-  </si>
-  <si>
-    <t>484,448</t>
-  </si>
-  <si>
-    <t>431,778</t>
-  </si>
-  <si>
-    <t>450,738</t>
-  </si>
-  <si>
-    <t>518,826</t>
-  </si>
-  <si>
-    <t>341,533</t>
-  </si>
-  <si>
-    <t>431,529</t>
-  </si>
-  <si>
-    <t>432,670</t>
-  </si>
-  <si>
-    <t>471,084</t>
-  </si>
-  <si>
-    <t>441,613</t>
-  </si>
-  <si>
-    <t>463,001</t>
-  </si>
-  <si>
-    <t>329,405</t>
-  </si>
-  <si>
-    <t>340,734</t>
-  </si>
-  <si>
-    <t>396,102</t>
-  </si>
-  <si>
-    <t>426,840</t>
-  </si>
-  <si>
-    <t>428,034</t>
-  </si>
-  <si>
-    <t>348,266</t>
-  </si>
-  <si>
-    <t>249,352</t>
-  </si>
-  <si>
-    <t>392,746</t>
-  </si>
-  <si>
-    <t>383,656</t>
-  </si>
-  <si>
-    <t>391,241</t>
-  </si>
-  <si>
-    <t>337,842</t>
-  </si>
-  <si>
-    <t>336,726</t>
-  </si>
-  <si>
-    <t>388,420</t>
-  </si>
-  <si>
-    <t>335,445</t>
-  </si>
-  <si>
-    <t>393,978</t>
-  </si>
-  <si>
-    <t>339,521</t>
-  </si>
-  <si>
-    <t>345,573</t>
-  </si>
-  <si>
     <t>本年累計</t>
-  </si>
-  <si>
-    <t>758,738</t>
-  </si>
-  <si>
-    <t>1,203,655</t>
-  </si>
-  <si>
-    <t>1,565,709</t>
-  </si>
-  <si>
-    <t>1,947,093</t>
-  </si>
-  <si>
-    <t>2,315,202</t>
-  </si>
-  <si>
-    <t>2,754,774</t>
-  </si>
-  <si>
-    <t>3,133,889</t>
-  </si>
-  <si>
-    <t>3,521,251</t>
-  </si>
-  <si>
-    <t>3,972,021</t>
-  </si>
-  <si>
-    <t>4,428,941</t>
-  </si>
-  <si>
-    <t>4,869,456</t>
-  </si>
-  <si>
-    <t>749,955</t>
-  </si>
-  <si>
-    <t>1,216,639</t>
-  </si>
-  <si>
-    <t>1,674,071</t>
-  </si>
-  <si>
-    <t>2,082,974</t>
-  </si>
-  <si>
-    <t>2,495,554</t>
-  </si>
-  <si>
-    <t>2,909,014</t>
-  </si>
-  <si>
-    <t>3,324,999</t>
-  </si>
-  <si>
-    <t>3,732,237</t>
-  </si>
-  <si>
-    <t>4,216,685</t>
-  </si>
-  <si>
-    <t>4,648,463</t>
-  </si>
-  <si>
-    <t>5,099,201</t>
-  </si>
-  <si>
-    <t>860,359</t>
-  </si>
-  <si>
-    <t>1,291,888</t>
-  </si>
-  <si>
-    <t>1,724,558</t>
-  </si>
-  <si>
-    <t>2,195,642</t>
-  </si>
-  <si>
-    <t>2,637,255</t>
-  </si>
-  <si>
-    <t>3,100,256</t>
-  </si>
-  <si>
-    <t>3,429,661</t>
-  </si>
-  <si>
-    <t>3,770,395</t>
-  </si>
-  <si>
-    <t>4,166,497</t>
-  </si>
-  <si>
-    <t>4,593,337</t>
-  </si>
-  <si>
-    <t>5,021,371</t>
-  </si>
-  <si>
-    <t>597,618</t>
-  </si>
-  <si>
-    <t>990,364</t>
-  </si>
-  <si>
-    <t>1,374,020</t>
-  </si>
-  <si>
-    <t>1,765,261</t>
-  </si>
-  <si>
-    <t>2,103,103</t>
-  </si>
-  <si>
-    <t>2,439,829</t>
-  </si>
-  <si>
-    <t>2,828,249</t>
-  </si>
-  <si>
-    <t>3,163,694</t>
-  </si>
-  <si>
-    <t>3,557,672</t>
-  </si>
-  <si>
-    <t>3,897,193</t>
-  </si>
-  <si>
-    <t>4,242,766</t>
   </si>
 </sst>
 </file>
@@ -946,298 +670,298 @@
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>96</v>
+      <c r="B2" t="n">
+        <v>481802</v>
+      </c>
+      <c r="C2" t="n">
+        <v>276936</v>
+      </c>
+      <c r="D2" t="n">
+        <v>444917</v>
+      </c>
+      <c r="E2" t="n">
+        <v>362054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>381384</v>
+      </c>
+      <c r="G2" t="n">
+        <v>368109</v>
+      </c>
+      <c r="H2" t="n">
+        <v>439572</v>
+      </c>
+      <c r="I2" t="n">
+        <v>379115</v>
+      </c>
+      <c r="J2" t="n">
+        <v>387362</v>
+      </c>
+      <c r="K2" t="n">
+        <v>450770</v>
+      </c>
+      <c r="L2" t="n">
+        <v>456920</v>
+      </c>
+      <c r="M2" t="n">
+        <v>440515</v>
+      </c>
+      <c r="N2" t="n">
+        <v>506782</v>
+      </c>
+      <c r="O2" t="n">
+        <v>243173</v>
+      </c>
+      <c r="P2" t="n">
+        <v>466684</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>457432</v>
+      </c>
+      <c r="R2" t="n">
+        <v>408903</v>
+      </c>
+      <c r="S2" t="n">
+        <v>412580</v>
+      </c>
+      <c r="T2" t="n">
+        <v>413460</v>
+      </c>
+      <c r="U2" t="n">
+        <v>415985</v>
+      </c>
+      <c r="V2" t="n">
+        <v>407238</v>
+      </c>
+      <c r="W2" t="n">
+        <v>484448</v>
+      </c>
+      <c r="X2" t="n">
+        <v>431778</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>450738</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>518826</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>341533</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>431529</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>432670</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>471084</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>441613</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>463001</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>329405</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>340734</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>396102</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>426840</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>428034</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>348266</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>249352</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>392746</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>383656</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>391241</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>337842</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>336726</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>388420</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>335445</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>393978</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>339521</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>345573</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>141</v>
+      <c r="B3" t="n">
+        <v>481802</v>
+      </c>
+      <c r="C3" t="n">
+        <v>758738</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1203655</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1565709</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1947093</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2315202</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2754774</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3133889</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3521251</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3972021</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4428941</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4869456</v>
+      </c>
+      <c r="N3" t="n">
+        <v>506782</v>
+      </c>
+      <c r="O3" t="n">
+        <v>749955</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1216639</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1674071</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2082974</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2495554</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2909014</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3324999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3732237</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4216685</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4648463</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5099201</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>518826</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>860359</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1291888</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1724558</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2195642</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2637255</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3100256</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3429661</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3770395</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4166497</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4593337</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5021371</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>348266</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>597618</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>990364</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1374020</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1765261</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2103103</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2439829</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2828249</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3163694</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3557672</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3897193</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4242766</v>
       </c>
     </row>
   </sheetData>
